--- a/Excel Output/AllEnglish.xlsx
+++ b/Excel Output/AllEnglish.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29935" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29937" uniqueCount="1299">
   <si>
     <t>Time</t>
   </si>
@@ -3971,6 +3971,9 @@
   </si>
   <si>
     <t>1985-89</t>
+  </si>
+  <si>
+    <t>1980-84</t>
   </si>
 </sst>
 </file>
@@ -13380,7 +13383,7 @@
         <v>737</v>
       </c>
       <c r="K20" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L20" t="s">
         <v>751</v>
@@ -13587,10 +13590,10 @@
         <v>1290</v>
       </c>
       <c r="CB20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="CC20" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="CD20" t="s">
         <v>1290</v>
@@ -29092,7 +29095,7 @@
         <v>738</v>
       </c>
       <c r="K52" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="L52" t="s">
         <v>751</v>
@@ -29299,10 +29302,10 @@
         <v>1290</v>
       </c>
       <c r="CB52" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="CC52" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="CD52" t="s">
         <v>1290</v>
@@ -30073,8 +30076,8 @@
       <c r="J54" t="s">
         <v>737</v>
       </c>
-      <c r="K54" t="e">
-        <v>#N/A</v>
+      <c r="K54" t="s">
+        <v>748</v>
       </c>
       <c r="L54" t="s">
         <v>753</v>
@@ -30284,7 +30287,7 @@
         <v>1290</v>
       </c>
       <c r="CC54" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="CD54" t="s">
         <v>1291</v>
@@ -89960,8 +89963,8 @@
       <c r="E176" t="s">
         <v>644</v>
       </c>
-      <c r="F176" t="e">
-        <v>#N/A</v>
+      <c r="F176" t="n">
+        <v>2013.0</v>
       </c>
       <c r="G176" t="s">
         <v>653</v>
@@ -90117,7 +90120,7 @@
         <v>1290</v>
       </c>
       <c r="BF176" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="BG176" t="s">
         <v>1290</v>
@@ -90431,8 +90434,8 @@
       <c r="FF176" t="s">
         <v>1290</v>
       </c>
-      <c r="FG176" t="e">
-        <v>#N/A</v>
+      <c r="FG176" t="s">
+        <v>1292</v>
       </c>
     </row>
     <row r="177">
@@ -95833,7 +95836,7 @@
         <v>1290</v>
       </c>
       <c r="FG187" t="s">
-        <v>1188</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="188">
